--- a/data/trans_orig/IP12BS02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F90FBF31-FC14-434D-8313-B062631AD441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E65874AE-24F4-4BC0-B277-88655356FB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9F4FCDEA-3843-4D6E-A311-747C2BBAE50C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{543D6BC9-D256-4853-A451-7ECEE5A54C43}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,22 +70,34 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Problemas de nervios, dificultad para dormir</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>Problemas de garganta, tos, catarro o gripe</t>
+  </si>
+  <si>
+    <t>Dolor de cabeza</t>
+  </si>
+  <si>
     <t>Contusión, lesión o heridas</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>Dolor de oídos, otitis</t>
   </si>
   <si>
     <t>Diarrea o problemas intestinales</t>
@@ -103,6 +115,66 @@
     <t>64,7%</t>
   </si>
   <si>
+    <t>Ronchas, picor, alergias</t>
+  </si>
+  <si>
+    <t>Problemas de estómago, digestivos</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>Fiebre</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>Problemas con dientes o encías</t>
+  </si>
+  <si>
+    <t>Vómitos</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
     <t>Dolor abdominal</t>
   </si>
   <si>
@@ -118,87 +190,111 @@
     <t>50,03%</t>
   </si>
   <si>
-    <t>Dolor de cabeza</t>
-  </si>
-  <si>
-    <t>Dolor de oídos, otitis</t>
-  </si>
-  <si>
-    <t>Fiebre</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
     <t>Otros</t>
   </si>
   <si>
-    <t>Problemas con dientes o encías</t>
-  </si>
-  <si>
-    <t>Problemas de estómago, digestivos</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>Problemas de garganta, tos, catarro o gripe</t>
-  </si>
-  <si>
-    <t>Problemas de nervios, dificultad para dormir</t>
-  </si>
-  <si>
-    <t>Ronchas, picor, alergias</t>
-  </si>
-  <si>
-    <t>Vómitos</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
     <t>15,89%</t>
   </si>
   <si>
@@ -211,24 +307,6 @@
     <t>50,78%</t>
   </si>
   <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
     <t>37,4%</t>
   </si>
   <si>
@@ -247,82 +325,22 @@
     <t>76,17%</t>
   </si>
   <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -334,6 +352,18 @@
     <t>7,93%</t>
   </si>
   <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
     <t>16,53%</t>
   </si>
   <si>
@@ -346,6 +376,81 @@
     <t>24,4%</t>
   </si>
   <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
     <t>18,1%</t>
   </si>
   <si>
@@ -364,42 +469,6 @@
     <t>33,07%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
     <t>20,39%</t>
   </si>
   <si>
@@ -421,81 +490,33 @@
     <t>37,18%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
     <t>Menores según el tipo de dolor sufrido que le limita 2 en 2012 (Tasa respuesta: 1,24%)</t>
   </si>
   <si>
     <t>30,57%</t>
   </si>
   <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
     <t>16,99%</t>
   </si>
   <si>
@@ -508,25 +529,16 @@
     <t>32,05%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>85,88%</t>
@@ -550,16 +562,55 @@
     <t>92,41%</t>
   </si>
   <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
   </si>
   <si>
     <t>26,63%</t>
@@ -574,16 +625,16 @@
     <t>50,09%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
   </si>
   <si>
     <t>18,41%</t>
@@ -604,6 +655,18 @@
     <t>54,89%</t>
   </si>
   <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
     <t>31,44%</t>
   </si>
   <si>
@@ -616,67 +679,43 @@
     <t>53,12%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>8,61%</t>
@@ -691,7 +730,16 @@
     <t>22,78%</t>
   </si>
   <si>
-    <t>12,61%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>7,1%</t>
@@ -706,37 +754,28 @@
     <t>15,18%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>60,31%</t>
@@ -766,6 +805,18 @@
     <t>68,36%</t>
   </si>
   <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
     <t>6,81%</t>
   </si>
   <si>
@@ -787,63 +838,30 @@
     <t>29,02%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
     <t>Menores según el tipo de dolor sufrido que le limita 2 en 2015 (Tasa respuesta: 1,13%)</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
     <t>48,46%</t>
   </si>
   <si>
@@ -859,6 +877,15 @@
     <t>90,18%</t>
   </si>
   <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
     <t>14,43%</t>
   </si>
   <si>
@@ -871,31 +898,55 @@
     <t>38,13%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
   </si>
   <si>
     <t>52,95%</t>
@@ -916,6 +967,24 @@
     <t>68,72%</t>
   </si>
   <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
     <t>23,83%</t>
   </si>
   <si>
@@ -928,78 +997,33 @@
     <t>67,29%</t>
   </si>
   <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
     <t>7,61%</t>
   </si>
   <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
     <t>9,54%</t>
   </si>
   <si>
@@ -1012,28 +1036,37 @@
     <t>24,5%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
   </si>
   <si>
     <t>46,92%</t>
@@ -1063,6 +1096,30 @@
     <t>60,29%</t>
   </si>
   <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
     <t>22,47%</t>
   </si>
   <si>
@@ -1079,63 +1136,6 @@
   </si>
   <si>
     <t>32,49%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C0B59C-168C-448F-9F1B-8CD704B43FCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A5A933-25B0-485B-B1A4-1FC42E16B61B}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1711,40 +1711,40 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1226</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1762,40 +1762,40 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1846,7 +1846,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1897,7 +1897,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1915,40 +1915,40 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>622</v>
+        <v>1225</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>622</v>
+        <v>1226</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1999,109 +1999,109 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>1291</v>
+        <v>622</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2152,58 +2152,58 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>685</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>520</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1206</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -2221,85 +2221,85 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>1206</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,49 +2361,49 @@
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,7 +2424,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2454,64 +2454,64 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
-        <v>642</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2556,13 +2556,13 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2592,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2607,115 +2607,115 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>1887</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>1888</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>1512</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>598</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="M24" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>2110</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2760,64 +2760,64 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>1312</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2862,13 +2862,13 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -2883,94 +2883,94 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>632</v>
+        <v>700</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,10 +3024,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>4041</v>
+        <v>2038</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>51</v>
@@ -3039,10 +3039,10 @@
         <v>51</v>
       </c>
       <c r="H31" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31" s="7">
-        <v>1230</v>
+        <v>2562</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>51</v>
@@ -3054,10 +3054,10 @@
         <v>51</v>
       </c>
       <c r="M31" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N31" s="7">
-        <v>5272</v>
+        <v>4601</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>51</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3089,7 +3089,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,7 +3140,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -3170,28 +3170,28 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3206,28 +3206,28 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -3242,43 +3242,43 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3323,64 +3323,64 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>637</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M37" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>1312</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -3395,43 +3395,43 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="M38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3476,28 +3476,28 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>1887</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3512,28 +3512,28 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M40" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N40" s="7">
-        <v>0</v>
+        <v>1888</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -3578,79 +3578,79 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H42" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M42" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>1342</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3665,49 +3665,49 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M43" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>1512</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
       </c>
       <c r="I44" s="7">
-        <v>527</v>
+        <v>598</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>91</v>
@@ -3716,19 +3716,19 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" s="7">
+        <v>3</v>
+      </c>
+      <c r="N44" s="7">
+        <v>2110</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M44" s="7">
-        <v>1</v>
-      </c>
-      <c r="N44" s="7">
-        <v>527</v>
-      </c>
-      <c r="O44" s="7" t="s">
+      <c r="P44" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>94</v>
@@ -3740,10 +3740,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D45" s="7">
-        <v>2038</v>
+        <v>4041</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>51</v>
@@ -3755,10 +3755,10 @@
         <v>51</v>
       </c>
       <c r="H45" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45" s="7">
-        <v>2562</v>
+        <v>1230</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>51</v>
@@ -3770,10 +3770,10 @@
         <v>51</v>
       </c>
       <c r="M45" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N45" s="7">
-        <v>4601</v>
+        <v>5272</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>51</v>
@@ -3793,49 +3793,49 @@
         <v>10</v>
       </c>
       <c r="C46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M46" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46" s="7">
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,85 +3856,85 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H47" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M47" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N47" s="7">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C48" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>1342</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>613</v>
+        <v>720</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M48" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>1955</v>
+        <v>720</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>107</v>
@@ -3943,7 +3943,7 @@
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -3958,43 +3958,43 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H49" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M49" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -4009,7 +4009,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -4039,217 +4039,217 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C51" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D51" s="7">
-        <v>2525</v>
+        <v>0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="H51" s="7">
         <v>2</v>
       </c>
       <c r="I51" s="7">
-        <v>1296</v>
+        <v>1225</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M51" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N51" s="7">
-        <v>3821</v>
+        <v>1225</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C52" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52" s="7">
-        <v>1512</v>
+        <v>0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
       </c>
       <c r="I52" s="7">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="M52" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N52" s="7">
-        <v>2110</v>
+        <v>632</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="H53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="7">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="M53" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N53" s="7">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C54" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D54" s="7">
-        <v>650</v>
+        <v>2525</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="7">
+        <v>2</v>
+      </c>
+      <c r="I54" s="7">
+        <v>1296</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M54" s="7">
+        <v>6</v>
+      </c>
+      <c r="N54" s="7">
+        <v>3821</v>
+      </c>
+      <c r="O54" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="P54" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H54" s="7">
-        <v>1</v>
-      </c>
-      <c r="I54" s="7">
-        <v>641</v>
-      </c>
-      <c r="J54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M54" s="7">
-        <v>2</v>
-      </c>
-      <c r="N54" s="7">
-        <v>1291</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -4294,106 +4294,106 @@
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C56" s="7">
         <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H56" s="7">
+        <v>2</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1047</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="M56" s="7">
+        <v>3</v>
+      </c>
+      <c r="N56" s="7">
+        <v>1732</v>
+      </c>
+      <c r="O56" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H56" s="7">
-        <v>1</v>
-      </c>
-      <c r="I56" s="7">
-        <v>642</v>
-      </c>
-      <c r="J56" s="7" t="s">
+      <c r="P56" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="M56" s="7">
-        <v>2</v>
-      </c>
-      <c r="N56" s="7">
-        <v>1342</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C57" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" s="7">
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
       </c>
       <c r="I57" s="7">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L57" s="7" t="s">
+      <c r="M57" s="7">
+        <v>3</v>
+      </c>
+      <c r="N57" s="7">
+        <v>1955</v>
+      </c>
+      <c r="O57" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M57" s="7">
-        <v>1</v>
-      </c>
-      <c r="N57" s="7">
-        <v>632</v>
-      </c>
-      <c r="O57" s="7" t="s">
+      <c r="P57" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>142</v>
@@ -4402,13 +4402,13 @@
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="7">
-        <v>685</v>
+        <v>1512</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>143</v>
@@ -4420,10 +4420,10 @@
         <v>144</v>
       </c>
       <c r="H58" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" s="7">
-        <v>1047</v>
+        <v>598</v>
       </c>
       <c r="J58" s="7" t="s">
         <v>145</v>
@@ -4438,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="N58" s="7">
-        <v>1732</v>
+        <v>2110</v>
       </c>
       <c r="O58" s="7" t="s">
         <v>147</v>
@@ -4517,7 +4517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA482EEC-7C6F-4784-9003-18467B9ADF82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DFA407-13F3-48FC-9189-FA3070EA48E4}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4677,7 +4677,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,40 +4701,40 @@
         <v>14</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4752,40 +4752,40 @@
         <v>14</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -4803,40 +4803,40 @@
         <v>14</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -4845,13 +4845,13 @@
         <v>711</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4875,70 +4875,70 @@
         <v>711</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>4326</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>1528</v>
+        <v>627</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>5854</v>
+        <v>627</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -4956,40 +4956,40 @@
         <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -5034,64 +5034,64 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>4326</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1528</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>5854</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -5136,13 +5136,13 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5187,13 +5187,13 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -5211,40 +5211,40 @@
         <v>14</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,49 +5351,49 @@
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,43 +5414,43 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5465,7 +5465,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5480,7 +5480,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5495,28 +5495,28 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5531,28 +5531,28 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>181</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -5567,7 +5567,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5582,7 +5582,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5597,64 +5597,64 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>1436</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>2087</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>187</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -5669,43 +5669,43 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>1334</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>1335</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5750,28 +5750,28 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>607</v>
+        <v>1621</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5786,28 +5786,28 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>607</v>
+        <v>1621</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -5822,43 +5822,43 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>1474</v>
+        <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="M27" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27" s="7">
-        <v>1474</v>
+        <v>0</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5903,13 +5903,13 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -5924,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5939,7 +5939,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5954,28 +5954,28 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>645</v>
+        <v>744</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5990,22 +5990,22 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>645</v>
+        <v>745</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,10 +6014,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>3537</v>
+        <v>2365</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>51</v>
@@ -6029,10 +6029,10 @@
         <v>51</v>
       </c>
       <c r="H31" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>4244</v>
+        <v>896</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>51</v>
@@ -6044,10 +6044,10 @@
         <v>51</v>
       </c>
       <c r="M31" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>7781</v>
+        <v>3261</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>51</v>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6079,7 +6079,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6109,7 +6109,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,58 +6130,58 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="H33" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" s="7">
-        <v>0</v>
+        <v>1474</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="M33" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" s="7">
-        <v>0</v>
+        <v>1474</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6196,43 +6196,43 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="M34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6247,28 +6247,28 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="M35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -6283,7 +6283,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6298,7 +6298,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6313,28 +6313,28 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>1621</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6349,43 +6349,43 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="M37" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>1621</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6400,43 +6400,43 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="M38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="7">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -6451,79 +6451,79 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="M39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="H40" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="7">
-        <v>0</v>
+        <v>1436</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M40" s="7">
+        <v>3</v>
+      </c>
+      <c r="N40" s="7">
+        <v>2087</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -6538,58 +6538,58 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="H41" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="M41" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -6604,28 +6604,28 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="M42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -6640,7 +6640,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -6670,13 +6670,13 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -6691,37 +6691,37 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="H44" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M44" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" s="7">
-        <v>0</v>
+        <v>1335</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,10 +6730,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" s="7">
-        <v>2365</v>
+        <v>3537</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>51</v>
@@ -6745,10 +6745,10 @@
         <v>51</v>
       </c>
       <c r="H45" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I45" s="7">
-        <v>896</v>
+        <v>4244</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>51</v>
@@ -6760,10 +6760,10 @@
         <v>51</v>
       </c>
       <c r="M45" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N45" s="7">
-        <v>3261</v>
+        <v>7781</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>51</v>
@@ -6783,49 +6783,49 @@
         <v>10</v>
       </c>
       <c r="C46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="7" t="s">
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M46" s="7">
-        <v>1</v>
-      </c>
-      <c r="N46" s="7">
-        <v>942</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,145 +6846,145 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H47" s="7">
+        <v>3</v>
+      </c>
+      <c r="I47" s="7">
+        <v>2370</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="7">
-        <v>627</v>
-      </c>
-      <c r="J47" s="7" t="s">
+      <c r="M47" s="7">
+        <v>3</v>
+      </c>
+      <c r="N47" s="7">
+        <v>2370</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="M47" s="7">
-        <v>1</v>
-      </c>
-      <c r="N47" s="7">
-        <v>627</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>96</v>
+        <v>223</v>
       </c>
       <c r="M48" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" s="7">
-        <v>0</v>
+        <v>1352</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>691</v>
+        <v>942</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M49" s="7">
         <v>1</v>
       </c>
-      <c r="I49" s="7">
-        <v>661</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M49" s="7">
-        <v>2</v>
-      </c>
       <c r="N49" s="7">
-        <v>1352</v>
+        <v>942</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
@@ -6993,13 +6993,13 @@
         <v>711</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7014,7 +7014,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -7023,136 +7023,136 @@
         <v>711</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C51" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D51" s="7">
-        <v>6598</v>
+        <v>0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H51" s="7">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7">
+        <v>627</v>
+      </c>
+      <c r="J51" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="K51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H51" s="7">
-        <v>4</v>
-      </c>
-      <c r="I51" s="7">
-        <v>2964</v>
-      </c>
-      <c r="J51" s="7" t="s">
+      <c r="M51" s="7">
+        <v>1</v>
+      </c>
+      <c r="N51" s="7">
+        <v>627</v>
+      </c>
+      <c r="O51" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="P51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M51" s="7">
-        <v>12</v>
-      </c>
-      <c r="N51" s="7">
-        <v>9562</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H52" s="7">
         <v>1</v>
       </c>
-      <c r="D52" s="7">
-        <v>744</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H52" s="7">
-        <v>2</v>
-      </c>
       <c r="I52" s="7">
-        <v>1334</v>
+        <v>875</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M52" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N52" s="7">
-        <v>2079</v>
+        <v>875</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -7167,79 +7167,79 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M53" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="7">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C54" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D54" s="7">
-        <v>607</v>
+        <v>6598</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H54" s="7">
+        <v>4</v>
+      </c>
+      <c r="I54" s="7">
+        <v>2964</v>
+      </c>
+      <c r="J54" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="K54" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L54" s="7" t="s">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="M54" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N54" s="7">
-        <v>607</v>
+        <v>9562</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -7254,58 +7254,58 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H55" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" s="7">
-        <v>2370</v>
+        <v>0</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="M55" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N55" s="7">
-        <v>2370</v>
+        <v>0</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7320,28 +7320,28 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M56" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C57" s="7">
         <v>0</v>
@@ -7356,85 +7356,85 @@
         <v>12</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H57" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="M57" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="7">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C58" s="7">
         <v>1</v>
       </c>
       <c r="D58" s="7">
-        <v>645</v>
+        <v>744</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H58" s="7">
+        <v>2</v>
+      </c>
+      <c r="I58" s="7">
+        <v>1334</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="M58" s="7">
+        <v>3</v>
+      </c>
+      <c r="N58" s="7">
+        <v>2079</v>
+      </c>
+      <c r="O58" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>0</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M58" s="7">
-        <v>1</v>
-      </c>
-      <c r="N58" s="7">
-        <v>645</v>
-      </c>
-      <c r="O58" s="7" t="s">
+      <c r="P58" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>265</v>
@@ -7507,7 +7507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35249B72-F311-4B5F-AAB2-4A161985D5E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18E89CF-2E13-4A7C-8264-1CE85C5BD32B}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7637,7 +7637,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -7724,7 +7724,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7775,7 +7775,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -7790,7 +7790,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7826,7 +7826,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7877,124 +7877,124 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>1209</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>2618</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>3827</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1212</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>536</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8012,91 +8012,91 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>2618</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>3827</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -8114,25 +8114,25 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -8147,7 +8147,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8183,58 +8183,58 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>1212</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -8249,37 +8249,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8353,7 +8353,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8368,7 +8368,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8404,7 +8404,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8419,7 +8419,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8434,13 +8434,13 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8485,13 +8485,13 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -8506,58 +8506,58 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>1759</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>1759</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>288</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>764</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8572,43 +8572,43 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>764</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>13</v>
+        <v>287</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -8623,28 +8623,28 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -8659,43 +8659,43 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>293</v>
+        <v>59</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>295</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8725,7 +8725,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -8740,64 +8740,64 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1961</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
-        <v>891</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>502</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2463</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>891</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -8827,7 +8827,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -8842,13 +8842,13 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -8863,43 +8863,43 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>1128</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>1128</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>14</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -8914,43 +8914,43 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>772</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>299</v>
+        <v>59</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>772</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>301</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -8965,37 +8965,37 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>14</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9004,10 +9004,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>1655</v>
+        <v>2605</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>51</v>
@@ -9022,7 +9022,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="7">
-        <v>3323</v>
+        <v>2430</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>51</v>
@@ -9034,10 +9034,10 @@
         <v>51</v>
       </c>
       <c r="M31" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N31" s="7">
-        <v>4978</v>
+        <v>5034</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>51</v>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9069,7 +9069,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9099,7 +9099,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9108,19 +9108,19 @@
         <v>16</v>
       </c>
       <c r="C33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="7">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>303</v>
+        <v>13</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9135,28 +9135,28 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="7">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>305</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -9171,43 +9171,43 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>1759</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="M34" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>1759</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>15</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -9252,28 +9252,28 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9288,79 +9288,79 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>15</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C37" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>1961</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>309</v>
+        <v>59</v>
       </c>
       <c r="M37" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>2463</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>312</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -9375,58 +9375,58 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>799</v>
+        <v>772</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>799</v>
+        <v>772</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="7">
-        <v>0</v>
+        <v>891</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9441,28 +9441,28 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="7">
-        <v>0</v>
+        <v>891</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -9507,13 +9507,13 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -9543,7 +9543,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -9594,7 +9594,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -9609,13 +9609,13 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -9630,7 +9630,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -9645,7 +9645,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -9660,13 +9660,13 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -9681,28 +9681,28 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="H44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="7">
-        <v>1128</v>
+        <v>792</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="M44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>1128</v>
+        <v>792</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>317</v>
@@ -9720,10 +9720,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" s="7">
-        <v>2605</v>
+        <v>1655</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>51</v>
@@ -9738,7 +9738,7 @@
         <v>4</v>
       </c>
       <c r="I45" s="7">
-        <v>2430</v>
+        <v>3323</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>51</v>
@@ -9750,10 +9750,10 @@
         <v>51</v>
       </c>
       <c r="M45" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N45" s="7">
-        <v>5034</v>
+        <v>4978</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>51</v>
@@ -9800,7 +9800,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -9824,19 +9824,19 @@
         <v>16</v>
       </c>
       <c r="C47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="7">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>320</v>
+        <v>11</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -9851,28 +9851,28 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="7">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>322</v>
+        <v>11</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
@@ -9890,40 +9890,40 @@
         <v>267</v>
       </c>
       <c r="H48" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" s="7">
-        <v>0</v>
+        <v>1759</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>217</v>
+        <v>321</v>
       </c>
       <c r="M48" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" s="7">
-        <v>0</v>
+        <v>1759</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C49" s="7">
         <v>0</v>
@@ -9941,40 +9941,40 @@
         <v>267</v>
       </c>
       <c r="H49" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>1759</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>324</v>
+        <v>11</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="M49" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N49" s="7">
-        <v>1759</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
@@ -9983,13 +9983,13 @@
         <v>764</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -10013,136 +10013,136 @@
         <v>764</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C51" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D51" s="7">
-        <v>3170</v>
+        <v>644</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>333</v>
+        <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H51" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I51" s="7">
-        <v>3119</v>
+        <v>0</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>335</v>
+        <v>11</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="M51" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N51" s="7">
-        <v>6289</v>
+        <v>644</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>339</v>
+        <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C52" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="H52" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" s="7">
-        <v>2127</v>
+        <v>1331</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>342</v>
+        <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M52" s="7">
         <v>3</v>
       </c>
       <c r="N52" s="7">
-        <v>2127</v>
+        <v>1984</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
       </c>
       <c r="D53" s="7">
-        <v>634</v>
+        <v>891</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -10157,94 +10157,94 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
       </c>
       <c r="N53" s="7">
-        <v>634</v>
+        <v>891</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C54" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54" s="7">
-        <v>891</v>
+        <v>3170</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H54" s="7">
+        <v>5</v>
+      </c>
+      <c r="I54" s="7">
+        <v>3119</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M54" s="7">
+        <v>10</v>
+      </c>
+      <c r="N54" s="7">
+        <v>6289</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M54" s="7">
-        <v>1</v>
-      </c>
-      <c r="N54" s="7">
-        <v>891</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -10259,28 +10259,28 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M55" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>11</v>
+        <v>354</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -10298,91 +10298,91 @@
         <v>267</v>
       </c>
       <c r="H56" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" s="7">
-        <v>0</v>
+        <v>1128</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>217</v>
+        <v>357</v>
       </c>
       <c r="M56" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N56" s="7">
-        <v>0</v>
+        <v>1128</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>11</v>
+        <v>358</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C57" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="H57" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" s="7">
-        <v>1331</v>
+        <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>357</v>
+        <v>11</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>358</v>
+        <v>213</v>
       </c>
       <c r="M57" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N57" s="7">
-        <v>1984</v>
+        <v>0</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>359</v>
+        <v>11</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C58" s="7">
         <v>0</v>
@@ -10400,31 +10400,31 @@
         <v>267</v>
       </c>
       <c r="H58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58" s="7">
-        <v>1128</v>
+        <v>2127</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="7" t="s">
+      <c r="M58" s="7">
+        <v>3</v>
+      </c>
+      <c r="N58" s="7">
+        <v>2127</v>
+      </c>
+      <c r="O58" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="M58" s="7">
-        <v>2</v>
-      </c>
-      <c r="N58" s="7">
-        <v>1128</v>
-      </c>
-      <c r="O58" s="7" t="s">
+      <c r="P58" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>365</v>

--- a/data/trans_orig/IP12BS02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS02-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECBDAEC3-769D-48C1-A5B0-39361719F40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6EC2D2F-2697-4C56-973A-0D9DE84426B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B34F1706-29E7-4C98-84CF-159C2527FCD0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D2D07E90-D905-4E63-81E9-E2246764D50D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="357">
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 2 en 2007 (Tasa respuesta: 1,09%)</t>
   </si>
@@ -103,7 +103,7 @@
     <t>21,53%</t>
   </si>
   <si>
-    <t>81,7%</t>
+    <t>81,5%</t>
   </si>
   <si>
     <t>Problemas con dientes o encías</t>
@@ -118,7 +118,7 @@
     <t>19,55%</t>
   </si>
   <si>
-    <t>79,13%</t>
+    <t>80,24%</t>
   </si>
   <si>
     <t>Problemas de estómago, digestivos</t>
@@ -130,7 +130,7 @@
     <t>20,42%</t>
   </si>
   <si>
-    <t>79,14%</t>
+    <t>80,11%</t>
   </si>
   <si>
     <t>Ronchas, picor, alergias</t>
@@ -181,25 +181,25 @@
     <t>16,09%</t>
   </si>
   <si>
-    <t>66,49%</t>
+    <t>67,84%</t>
   </si>
   <si>
     <t>22,46%</t>
   </si>
   <si>
-    <t>57,0%</t>
+    <t>57,26%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>60,67%</t>
+    <t>60,76%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>49,89%</t>
+    <t>39,59%</t>
   </si>
   <si>
     <t>31,28%</t>
@@ -208,49 +208,49 @@
     <t>17,69%</t>
   </si>
   <si>
-    <t>68,85%</t>
+    <t>68,47%</t>
   </si>
   <si>
     <t>22,43%</t>
   </si>
   <si>
-    <t>57,01%</t>
+    <t>56,15%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>73,87%</t>
+    <t>66,96%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>45,83%</t>
+    <t>45,74%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>70,69%</t>
+    <t>71,46%</t>
   </si>
   <si>
     <t>12,31%</t>
   </si>
   <si>
-    <t>53,26%</t>
+    <t>47,32%</t>
   </si>
   <si>
     <t>16,85%</t>
   </si>
   <si>
-    <t>67,79%</t>
+    <t>67,69%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>58,57%</t>
+    <t>67,31%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -274,7 +274,7 @@
     <t>21,17%</t>
   </si>
   <si>
-    <t>81,0%</t>
+    <t>62,6%</t>
   </si>
   <si>
     <t>48,61%</t>
@@ -283,19 +283,19 @@
     <t>28,78%</t>
   </si>
   <si>
-    <t>72,08%</t>
+    <t>71,89%</t>
   </si>
   <si>
     <t>20,01%</t>
   </si>
   <si>
-    <t>79,43%</t>
+    <t>80,01%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>58,46%</t>
+    <t>57,87%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -304,16 +304,16 @@
     <t>58,82%</t>
   </si>
   <si>
-    <t>18,62%</t>
+    <t>18,34%</t>
   </si>
   <si>
     <t>42,52%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
   </si>
   <si>
     <t>51,39%</t>
@@ -322,70 +322,70 @@
     <t>14,24%</t>
   </si>
   <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>38,21%</t>
+    <t>33,89%</t>
   </si>
   <si>
     <t>14,23%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>53,75%</t>
+    <t>51,79%</t>
   </si>
   <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>38,19%</t>
+    <t>41,48%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>55,05%</t>
+    <t>37,51%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>37,65%</t>
+    <t>44,79%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -400,94 +400,94 @@
     <t>34,05%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>17,48%</t>
   </si>
   <si>
-    <t>51,19%</t>
+    <t>51,15%</t>
   </si>
   <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>36,17%</t>
+    <t>36,34%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>42,88%</t>
+    <t>34,68%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>26,39%</t>
+    <t>25,91%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>43,2%</t>
+    <t>39,36%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>18,03%</t>
+    <t>21,29%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>39,06%</t>
+    <t>46,07%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>23,49%</t>
+    <t>21,11%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>43,9%</t>
+    <t>38,07%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>40,28%</t>
+    <t>37,86%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>28,93%</t>
+    <t>27,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -505,7 +505,7 @@
     <t>87,51%</t>
   </si>
   <si>
-    <t>40,93%</t>
+    <t>36,01%</t>
   </si>
   <si>
     <t>29,1%</t>
@@ -514,13 +514,16 @@
     <t>12,49%</t>
   </si>
   <si>
-    <t>59,07%</t>
+    <t>63,99%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>80,72%</t>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -529,16 +532,16 @@
     <t>59,73%</t>
   </si>
   <si>
-    <t>17,65%</t>
+    <t>0,73%</t>
   </si>
   <si>
     <t>35,7%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>35,99%</t>
@@ -547,19 +550,19 @@
     <t>14,47%</t>
   </si>
   <si>
-    <t>55,26%</t>
+    <t>54,73%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>80,33%</t>
+    <t>81,91%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>55,8%</t>
+    <t>57,78%</t>
   </si>
   <si>
     <t>27,18%</t>
@@ -568,7 +571,7 @@
     <t>10,93%</t>
   </si>
   <si>
-    <t>61,22%</t>
+    <t>60,41%</t>
   </si>
   <si>
     <t>36,83%</t>
@@ -577,7 +580,7 @@
     <t>14,81%</t>
   </si>
   <si>
-    <t>55,22%</t>
+    <t>56,39%</t>
   </si>
   <si>
     <t>49,59%</t>
@@ -586,9 +589,6 @@
     <t>22,74%</t>
   </si>
   <si>
-    <t>74,69%</t>
-  </si>
-  <si>
     <t>36,25%</t>
   </si>
   <si>
@@ -607,6 +607,9 @@
     <t>23,17%</t>
   </si>
   <si>
+    <t>75,35%</t>
+  </si>
+  <si>
     <t>22,81%</t>
   </si>
   <si>
@@ -616,478 +619,490 @@
     <t>11,47%</t>
   </si>
   <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de dolor sufrido que le limita 2 en 2016 (Tasa respuesta: 1,13%)</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
     <t>49,72%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de dolor sufrido que le limita 2 en 2015 (Tasa respuesta: 1,13%)</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
+    <t>63,02%</t>
   </si>
   <si>
     <t>38,77%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>48,31%</t>
+    <t>56,9%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>26,9%</t>
+    <t>21,52%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>46,97%</t>
+    <t>47,1%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>40,45%</t>
+    <t>43,89%</t>
   </si>
   <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>39,56%</t>
+    <t>40,14%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
+    <t>24,56%</t>
+  </si>
+  <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>42,96%</t>
+    <t>44,82%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>23,77%</t>
+    <t>20,15%</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>57,78%</t>
+    <t>47,98%</t>
   </si>
   <si>
     <t>10,85%</t>
@@ -1505,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EBE121-92D4-4B56-8E13-21BB826BD8F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDA5EFA-E872-4E67-9E76-EA88D4376CF8}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5217,7 +5232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BE96F4-7250-45AB-A453-A7617D4D9597}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3E7BFF-3124-4FEE-B1DC-B3FCC87D4B3F}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6093,7 +6108,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,7 +6159,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,7 +6210,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,7 +6261,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,10 +6276,10 @@
         <v>2159</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -6291,13 +6306,13 @@
         <v>2159</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,7 +6363,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,7 +6393,7 @@
         <v>875</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -6393,13 +6408,13 @@
         <v>875</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,7 +6465,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,13 +6480,13 @@
         <v>711</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6495,13 +6510,13 @@
         <v>711</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,7 +6567,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,7 +6597,7 @@
         <v>661</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
@@ -6597,13 +6612,13 @@
         <v>661</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,7 +6648,7 @@
         <v>896</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
@@ -6648,13 +6663,13 @@
         <v>896</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,7 +6720,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,7 +6803,7 @@
         <v>678</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
@@ -6803,13 +6818,13 @@
         <v>678</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,7 +7334,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,13 +7519,13 @@
         <v>656</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -7519,13 +7534,13 @@
         <v>656</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,7 +7591,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,13 +7606,13 @@
         <v>645</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -7621,13 +7636,13 @@
         <v>645</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,7 +7693,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7708,13 @@
         <v>651</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -7708,7 +7723,7 @@
         <v>747</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>11</v>
@@ -7723,13 +7738,13 @@
         <v>1398</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,13 +7759,13 @@
         <v>607</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -7774,13 +7789,13 @@
         <v>607</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7831,7 +7846,7 @@
         <v>12</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,7 +7897,7 @@
         <v>12</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,7 +7948,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +7963,13 @@
         <v>942</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -7978,13 +7993,13 @@
         <v>942</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,7 +8050,7 @@
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,7 +8080,7 @@
         <v>1474</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>11</v>
@@ -8080,13 +8095,13 @@
         <v>1474</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,7 +8152,7 @@
         <v>12</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,13 +8220,13 @@
         <v>744</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H60" s="7">
         <v>2</v>
@@ -8220,13 +8235,13 @@
         <v>1334</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -8235,13 +8250,13 @@
         <v>2079</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,7 +8277,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -8292,7 +8307,7 @@
         <v>12</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,13 +8322,13 @@
         <v>645</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -8337,13 +8352,13 @@
         <v>645</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,7 +8379,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -8394,7 +8409,7 @@
         <v>12</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,13 +8424,13 @@
         <v>6598</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H64" s="7">
         <v>4</v>
@@ -8424,13 +8439,13 @@
         <v>2964</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M64" s="7">
         <v>12</v>
@@ -8439,13 +8454,13 @@
         <v>9562</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,13 +8475,13 @@
         <v>607</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -8490,13 +8505,13 @@
         <v>607</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,7 +8532,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
@@ -8526,13 +8541,13 @@
         <v>875</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -8541,13 +8556,13 @@
         <v>875</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,7 +8583,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -8577,13 +8592,13 @@
         <v>627</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M67" s="7">
         <v>1</v>
@@ -8592,13 +8607,13 @@
         <v>627</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -8613,13 +8628,13 @@
         <v>711</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -8643,13 +8658,13 @@
         <v>711</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -8664,13 +8679,13 @@
         <v>942</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -8694,13 +8709,13 @@
         <v>942</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>253</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -8715,13 +8730,13 @@
         <v>691</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -8730,13 +8745,13 @@
         <v>661</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -8745,13 +8760,13 @@
         <v>1352</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -8772,7 +8787,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H71" s="7">
         <v>3</v>
@@ -8781,13 +8796,13 @@
         <v>2370</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M71" s="7">
         <v>3</v>
@@ -8796,13 +8811,13 @@
         <v>2370</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -8823,7 +8838,7 @@
         <v>12</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -8853,7 +8868,7 @@
         <v>12</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,7 +8944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD5D0C2-99CE-4BA7-8F18-E3B5F06A8C28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21CAF6B-FFAE-4834-8164-B3D74CC7EAAF}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8946,7 +8961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9068,13 +9083,13 @@
         <v>536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -9083,13 +9098,13 @@
         <v>536</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9140,7 +9155,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9191,7 +9206,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9206,7 +9221,7 @@
         <v>633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -9236,13 +9251,13 @@
         <v>634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9257,7 +9272,7 @@
         <v>633</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -9272,10 +9287,10 @@
         <v>1948</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -9287,13 +9302,13 @@
         <v>2581</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9344,7 +9359,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9359,7 +9374,7 @@
         <v>652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -9374,13 +9389,13 @@
         <v>560</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -9389,13 +9404,13 @@
         <v>1212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9446,7 +9461,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9497,7 +9512,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9548,7 +9563,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9599,7 +9614,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9650,7 +9665,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9701,7 +9716,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9886,7 +9901,7 @@
         <v>1128</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -9901,13 +9916,13 @@
         <v>1128</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9976,7 +9991,7 @@
         <v>35</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -9988,7 +10003,7 @@
         <v>1172</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
@@ -10003,13 +10018,13 @@
         <v>3709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10126,13 +10141,13 @@
         <v>644</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -10156,13 +10171,13 @@
         <v>644</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10483,13 +10498,13 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -10498,7 +10513,7 @@
         <v>1591</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
@@ -10513,7 +10528,7 @@
         <v>1591</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
@@ -10532,13 +10547,13 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -10581,13 +10596,13 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -10630,13 +10645,13 @@
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -10679,13 +10694,13 @@
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -10728,13 +10743,13 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10777,13 +10792,13 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -10826,13 +10841,13 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -10875,13 +10890,13 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -10924,13 +10939,13 @@
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -10973,13 +10988,13 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -10988,7 +11003,7 @@
         <v>1133</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
@@ -11003,7 +11018,7 @@
         <v>1133</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>11</v>
@@ -11022,13 +11037,13 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -11071,13 +11086,13 @@
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -11120,13 +11135,13 @@
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H45" s="7">
         <v>3</v>
@@ -11428,7 +11443,7 @@
         <v>891</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
@@ -11458,7 +11473,7 @@
         <v>891</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>11</v>
@@ -11494,7 +11509,7 @@
         <v>772</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
@@ -11509,13 +11524,13 @@
         <v>772</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -11581,7 +11596,7 @@
         <v>764</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -11611,13 +11626,13 @@
         <v>764</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11698,7 +11713,7 @@
         <v>626</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>11</v>
@@ -11713,13 +11728,13 @@
         <v>626</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11895,7 +11910,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H60" s="7">
         <v>3</v>
@@ -11904,13 +11919,13 @@
         <v>2127</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -11919,13 +11934,13 @@
         <v>2127</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -11946,7 +11961,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -11961,7 +11976,7 @@
         <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -11976,7 +11991,7 @@
         <v>12</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -11997,7 +12012,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H62" s="7">
         <v>2</v>
@@ -12006,13 +12021,13 @@
         <v>1128</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M62" s="7">
         <v>2</v>
@@ -12021,13 +12036,13 @@
         <v>1128</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -12042,13 +12057,13 @@
         <v>634</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -12063,7 +12078,7 @@
         <v>12</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M63" s="7">
         <v>1</v>
@@ -12072,13 +12087,13 @@
         <v>634</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -12093,13 +12108,13 @@
         <v>3170</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>322</v>
+        <v>126</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H64" s="7">
         <v>5</v>
@@ -12108,13 +12123,13 @@
         <v>3119</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>325</v>
+        <v>157</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M64" s="7">
         <v>10</v>
@@ -12123,13 +12138,13 @@
         <v>6289</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -12144,13 +12159,13 @@
         <v>891</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -12165,7 +12180,7 @@
         <v>12</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -12174,13 +12189,13 @@
         <v>891</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -12195,13 +12210,13 @@
         <v>652</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -12210,13 +12225,13 @@
         <v>1331</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M66" s="7">
         <v>3</v>
@@ -12225,13 +12240,13 @@
         <v>1984</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -12246,13 +12261,13 @@
         <v>644</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -12267,7 +12282,7 @@
         <v>12</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M67" s="7">
         <v>1</v>
@@ -12276,13 +12291,13 @@
         <v>644</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -12297,13 +12312,13 @@
         <v>764</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -12318,7 +12333,7 @@
         <v>12</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M68" s="7">
         <v>1</v>
@@ -12327,13 +12342,13 @@
         <v>764</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -12354,7 +12369,7 @@
         <v>12</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -12369,7 +12384,7 @@
         <v>12</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -12384,7 +12399,7 @@
         <v>12</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -12405,7 +12420,7 @@
         <v>12</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -12414,13 +12429,13 @@
         <v>1759</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -12429,13 +12444,13 @@
         <v>1759</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -12456,7 +12471,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -12471,7 +12486,7 @@
         <v>12</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -12486,7 +12501,7 @@
         <v>12</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -12507,7 +12522,7 @@
         <v>12</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -12522,7 +12537,7 @@
         <v>12</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -12537,7 +12552,7 @@
         <v>12</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
